--- a/tests/template/cortex_xlsx_data/04-balance.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/04-balance.in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5BED2-2079-C449-9DF0-ECC9D9E2AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D80AE-186E-BC45-A1A3-4D98730725DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="780" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -309,32 +309,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -374,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,13 +378,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,15 +393,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -760,63 +729,63 @@
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="27">
+        <v>5</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="27">
+        <v>60</v>
+      </c>
+      <c r="D16" s="27">
+        <v>100</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1859,8 +1828,8 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="32">
-        <v>0.3</v>
+      <c r="B7" s="26">
+        <v>35</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>29</v>

--- a/tests/template/cortex_xlsx_data/04-balance.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/04-balance.in/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D80AE-186E-BC45-A1A3-4D98730725DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B674AA54-7D08-B444-A305-853E97FB3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="780" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,6 +378,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,10 +397,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:L986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -676,30 +676,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -729,63 +729,63 @@
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
         <v>20</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <v>5</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22">
         <v>5</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
         <v>5</v>
       </c>
-      <c r="D15" s="27">
+      <c r="G15" s="22">
         <v>15</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="27">
+      <c r="F16" s="22">
         <v>60</v>
       </c>
-      <c r="D16" s="27">
+      <c r="G16" s="22">
         <v>100</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1828,7 +1828,7 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="21">
         <v>35</v>
       </c>
       <c r="E7" s="13" t="s">
